--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H2">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I2">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J2">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N2">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O2">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P2">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q2">
-        <v>116.4023810903213</v>
+        <v>6.052634638563333</v>
       </c>
       <c r="R2">
-        <v>1047.621429812892</v>
+        <v>54.47371174707</v>
       </c>
       <c r="S2">
-        <v>0.0302790112443109</v>
+        <v>0.003523303383050565</v>
       </c>
       <c r="T2">
-        <v>0.0302790112443109</v>
+        <v>0.003523303383050565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H3">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I3">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J3">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q3">
-        <v>40.75025771747332</v>
+        <v>24.64154362797778</v>
       </c>
       <c r="R3">
-        <v>366.7523194572599</v>
+        <v>221.7738926518</v>
       </c>
       <c r="S3">
-        <v>0.01060010542807133</v>
+        <v>0.01434410619714027</v>
       </c>
       <c r="T3">
-        <v>0.01060010542807132</v>
+        <v>0.01434410619714027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.825549</v>
+        <v>1.103903333333333</v>
       </c>
       <c r="H4">
-        <v>5.476647</v>
+        <v>3.31171</v>
       </c>
       <c r="I4">
-        <v>0.04696949406168958</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="J4">
-        <v>0.04696949406168957</v>
+        <v>0.02393122995918198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N4">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q4">
-        <v>23.413394319051</v>
+        <v>10.41695399961</v>
       </c>
       <c r="R4">
-        <v>210.720548871459</v>
+        <v>93.75258599649</v>
       </c>
       <c r="S4">
-        <v>0.006090377389307348</v>
+        <v>0.006063820378991142</v>
       </c>
       <c r="T4">
-        <v>0.006090377389307347</v>
+        <v>0.006063820378991142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J5">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N5">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O5">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P5">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q5">
-        <v>1503.36295824576</v>
+        <v>129.2733162157103</v>
       </c>
       <c r="R5">
-        <v>13530.26662421184</v>
+        <v>1163.459845941393</v>
       </c>
       <c r="S5">
-        <v>0.3910602471411886</v>
+        <v>0.07525138052428168</v>
       </c>
       <c r="T5">
-        <v>0.3910602471411887</v>
+        <v>0.07525138052428169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J6">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q6">
-        <v>526.2987528054244</v>
+        <v>526.2987528054243</v>
       </c>
       <c r="R6">
-        <v>4736.688775248819</v>
+        <v>4736.688775248818</v>
       </c>
       <c r="S6">
-        <v>0.1369027480777821</v>
+        <v>0.3063641351222858</v>
       </c>
       <c r="T6">
-        <v>0.1369027480777821</v>
+        <v>0.3063641351222858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>70.732129</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="J7">
-        <v>0.6066215903701957</v>
+        <v>0.5111277390235027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N7">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q7">
-        <v>302.389258848157</v>
+        <v>222.487275180339</v>
       </c>
       <c r="R7">
-        <v>2721.503329633413</v>
+        <v>2002.38547662305</v>
       </c>
       <c r="S7">
-        <v>0.07865859515122492</v>
+        <v>0.1295122233769353</v>
       </c>
       <c r="T7">
-        <v>0.07865859515122492</v>
+        <v>0.1295122233769353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H8">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J8">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N8">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O8">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P8">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q8">
-        <v>858.4896092362582</v>
+        <v>117.591874467991</v>
       </c>
       <c r="R8">
-        <v>7726.406483126324</v>
+        <v>1058.326870211919</v>
       </c>
       <c r="S8">
-        <v>0.2233134433136618</v>
+        <v>0.0684514882977757</v>
       </c>
       <c r="T8">
-        <v>0.2233134433136618</v>
+        <v>0.06845148829777573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H9">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J9">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q9">
-        <v>300.5408694948022</v>
+        <v>478.7411562126732</v>
       </c>
       <c r="R9">
-        <v>2704.86782545322</v>
+        <v>4308.670405914059</v>
       </c>
       <c r="S9">
-        <v>0.07817778538178673</v>
+        <v>0.2786803493048808</v>
       </c>
       <c r="T9">
-        <v>0.07817778538178673</v>
+        <v>0.2786803493048808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.46376966666667</v>
+        <v>21.446869</v>
       </c>
       <c r="H10">
-        <v>40.391309</v>
+        <v>64.34060699999999</v>
       </c>
       <c r="I10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173153</v>
       </c>
       <c r="J10">
-        <v>0.3464089155681147</v>
+        <v>0.4649410310173154</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N10">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q10">
-        <v>172.678218019097</v>
+        <v>202.3828002530369</v>
       </c>
       <c r="R10">
-        <v>1554.103962171873</v>
+        <v>1821.445202277333</v>
       </c>
       <c r="S10">
-        <v>0.04491768687266613</v>
+        <v>0.1178091934146589</v>
       </c>
       <c r="T10">
-        <v>0.04491768687266613</v>
+        <v>0.1178091934146589</v>
       </c>
     </row>
   </sheetData>
